--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt6</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt6</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -549,10 +549,10 @@
         <v>0.269933</v>
       </c>
       <c r="I2">
-        <v>0.2603189023002472</v>
+        <v>0.3637788484215491</v>
       </c>
       <c r="J2">
-        <v>0.2603189023002472</v>
+        <v>0.3637788484215491</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N2">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O2">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P2">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q2">
-        <v>0.03896284904133333</v>
+        <v>0.122649727143</v>
       </c>
       <c r="R2">
-        <v>0.350665641372</v>
+        <v>1.103847544287</v>
       </c>
       <c r="S2">
-        <v>0.004903809819840481</v>
+        <v>0.02205166937685303</v>
       </c>
       <c r="T2">
-        <v>0.004903809819840481</v>
+        <v>0.02205166937685302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.269933</v>
       </c>
       <c r="I3">
-        <v>0.2603189023002472</v>
+        <v>0.3637788484215491</v>
       </c>
       <c r="J3">
-        <v>0.2603189023002472</v>
+        <v>0.3637788484215491</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>11.980769</v>
       </c>
       <c r="O3">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P3">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q3">
         <v>0.3593338798307778</v>
@@ -641,10 +641,10 @@
         <v>3.234004918477</v>
       </c>
       <c r="S3">
-        <v>0.0452252607771633</v>
+        <v>0.06460602969537377</v>
       </c>
       <c r="T3">
-        <v>0.04522526077716331</v>
+        <v>0.06460602969537375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -673,10 +673,10 @@
         <v>0.269933</v>
       </c>
       <c r="I4">
-        <v>0.2603189023002472</v>
+        <v>0.3637788484215491</v>
       </c>
       <c r="J4">
-        <v>0.2603189023002472</v>
+        <v>0.3637788484215491</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N4">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O4">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P4">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q4">
-        <v>0.4679131693934443</v>
+        <v>0.2884879544795555</v>
       </c>
       <c r="R4">
-        <v>4.211218524540999</v>
+        <v>2.596391590316</v>
       </c>
       <c r="S4">
-        <v>0.05889089867299224</v>
+        <v>0.05186836644137503</v>
       </c>
       <c r="T4">
-        <v>0.05889089867299225</v>
+        <v>0.05186836644137502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,10 +735,10 @@
         <v>0.269933</v>
       </c>
       <c r="I5">
-        <v>0.2603189023002472</v>
+        <v>0.3637788484215491</v>
       </c>
       <c r="J5">
-        <v>0.2603189023002472</v>
+        <v>0.3637788484215491</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N5">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O5">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P5">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q5">
-        <v>0.3633874636917778</v>
+        <v>0.2487976060106667</v>
       </c>
       <c r="R5">
-        <v>3.270487173226</v>
+        <v>2.239178454096</v>
       </c>
       <c r="S5">
-        <v>0.04573543918639696</v>
+        <v>0.04473228499809908</v>
       </c>
       <c r="T5">
-        <v>0.04573543918639697</v>
+        <v>0.04473228499809907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.269933</v>
       </c>
       <c r="I6">
-        <v>0.2603189023002472</v>
+        <v>0.3637788484215491</v>
       </c>
       <c r="J6">
-        <v>0.2603189023002472</v>
+        <v>0.3637788484215491</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N6">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O6">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P6">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q6">
-        <v>0.3578338321572223</v>
+        <v>0.4407616586628889</v>
       </c>
       <c r="R6">
-        <v>3.220504489415</v>
+        <v>3.966854927966</v>
       </c>
       <c r="S6">
-        <v>0.04503646686981821</v>
+        <v>0.07924624536257761</v>
       </c>
       <c r="T6">
-        <v>0.04503646686981821</v>
+        <v>0.07924624536257761</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.269933</v>
       </c>
       <c r="I7">
-        <v>0.2603189023002472</v>
+        <v>0.3637788484215491</v>
       </c>
       <c r="J7">
-        <v>0.2603189023002472</v>
+        <v>0.3637788484215491</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N7">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O7">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P7">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q7">
-        <v>0.4809129027330001</v>
+        <v>0.5632797784721111</v>
       </c>
       <c r="R7">
-        <v>4.328216124597001</v>
+        <v>5.069518006249</v>
       </c>
       <c r="S7">
-        <v>0.06052702697403601</v>
+        <v>0.1012742525472706</v>
       </c>
       <c r="T7">
-        <v>0.06052702697403601</v>
+        <v>0.1012742525472706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.161247</v>
+        <v>0.039583</v>
       </c>
       <c r="H8">
-        <v>0.483741</v>
+        <v>0.118749</v>
       </c>
       <c r="I8">
-        <v>0.4665117866938237</v>
+        <v>0.1600336915872107</v>
       </c>
       <c r="J8">
-        <v>0.4665117866938237</v>
+        <v>0.1600336915872107</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N8">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O8">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P8">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q8">
-        <v>0.069824465916</v>
+        <v>0.053956101879</v>
       </c>
       <c r="R8">
-        <v>0.628420193244</v>
+        <v>0.4856049169109999</v>
       </c>
       <c r="S8">
-        <v>0.00878800986192668</v>
+        <v>0.009700976489839776</v>
       </c>
       <c r="T8">
-        <v>0.00878800986192668</v>
+        <v>0.009700976489839775</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.161247</v>
+        <v>0.039583</v>
       </c>
       <c r="H9">
-        <v>0.483741</v>
+        <v>0.118749</v>
       </c>
       <c r="I9">
-        <v>0.4665117866938237</v>
+        <v>0.1600336915872107</v>
       </c>
       <c r="J9">
-        <v>0.4665117866938237</v>
+        <v>0.1600336915872107</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>11.980769</v>
       </c>
       <c r="O9">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P9">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q9">
-        <v>0.643954352981</v>
+        <v>0.1580782597756667</v>
       </c>
       <c r="R9">
-        <v>5.795589176829</v>
+        <v>1.422704337981</v>
       </c>
       <c r="S9">
-        <v>0.08104719642876476</v>
+        <v>0.02842150244799984</v>
       </c>
       <c r="T9">
-        <v>0.08104719642876478</v>
+        <v>0.02842150244799983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.161247</v>
+        <v>0.039583</v>
       </c>
       <c r="H10">
-        <v>0.483741</v>
+        <v>0.118749</v>
       </c>
       <c r="I10">
-        <v>0.4665117866938237</v>
+        <v>0.1600336915872107</v>
       </c>
       <c r="J10">
-        <v>0.4665117866938237</v>
+        <v>0.1600336915872107</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N10">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O10">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P10">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q10">
-        <v>0.8385369127729998</v>
+        <v>0.1269117007053333</v>
       </c>
       <c r="R10">
-        <v>7.546832214956998</v>
+        <v>1.142205306348</v>
       </c>
       <c r="S10">
-        <v>0.1055370859249219</v>
+        <v>0.02281794610717046</v>
       </c>
       <c r="T10">
-        <v>0.1055370859249219</v>
+        <v>0.02281794610717046</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.161247</v>
+        <v>0.039583</v>
       </c>
       <c r="H11">
-        <v>0.483741</v>
+        <v>0.118749</v>
       </c>
       <c r="I11">
-        <v>0.4665117866938237</v>
+        <v>0.1600336915872107</v>
       </c>
       <c r="J11">
-        <v>0.4665117866938237</v>
+        <v>0.1600336915872107</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N11">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O11">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P11">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q11">
-        <v>0.6512186915780001</v>
+        <v>0.109451111632</v>
       </c>
       <c r="R11">
-        <v>5.860968224202001</v>
+        <v>0.985060004688</v>
       </c>
       <c r="S11">
-        <v>0.08196147594946471</v>
+        <v>0.01967863918542478</v>
       </c>
       <c r="T11">
-        <v>0.08196147594946472</v>
+        <v>0.01967863918542478</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.161247</v>
+        <v>0.039583</v>
       </c>
       <c r="H12">
-        <v>0.483741</v>
+        <v>0.118749</v>
       </c>
       <c r="I12">
-        <v>0.4665117866938237</v>
+        <v>0.1600336915872107</v>
       </c>
       <c r="J12">
-        <v>0.4665117866938237</v>
+        <v>0.1600336915872107</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N12">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O12">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P12">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q12">
-        <v>0.6412661504950001</v>
+        <v>0.1938999907553333</v>
       </c>
       <c r="R12">
-        <v>5.771395354455001</v>
+        <v>1.745099916798</v>
       </c>
       <c r="S12">
-        <v>0.08070886301442481</v>
+        <v>0.03486203017252699</v>
       </c>
       <c r="T12">
-        <v>0.08070886301442481</v>
+        <v>0.03486203017252699</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.161247</v>
+        <v>0.039583</v>
       </c>
       <c r="H13">
-        <v>0.483741</v>
+        <v>0.118749</v>
       </c>
       <c r="I13">
-        <v>0.4665117866938237</v>
+        <v>0.1600336915872107</v>
       </c>
       <c r="J13">
-        <v>0.4665117866938237</v>
+        <v>0.1600336915872107</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N13">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O13">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P13">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q13">
-        <v>0.8618334493410003</v>
+        <v>0.2477981958996667</v>
       </c>
       <c r="R13">
-        <v>7.756501044069001</v>
+        <v>2.230183763097</v>
       </c>
       <c r="S13">
-        <v>0.1084691555143208</v>
+        <v>0.04455259718424882</v>
       </c>
       <c r="T13">
-        <v>0.1084691555143208</v>
+        <v>0.04455259718424882</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.09441933333333334</v>
+        <v>0.117781</v>
       </c>
       <c r="H14">
-        <v>0.283258</v>
+        <v>0.353343</v>
       </c>
       <c r="I14">
-        <v>0.2731693110059291</v>
+        <v>0.4761874599912402</v>
       </c>
       <c r="J14">
-        <v>0.2731693110059291</v>
+        <v>0.4761874599912402</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N14">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O14">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P14">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q14">
-        <v>0.04088621507466667</v>
+        <v>0.160548812253</v>
       </c>
       <c r="R14">
-        <v>0.367975935672</v>
+        <v>1.444939310277</v>
       </c>
       <c r="S14">
-        <v>0.005145881985338493</v>
+        <v>0.02886569264456506</v>
       </c>
       <c r="T14">
-        <v>0.005145881985338493</v>
+        <v>0.02886569264456506</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.09441933333333334</v>
+        <v>0.117781</v>
       </c>
       <c r="H15">
-        <v>0.283258</v>
+        <v>0.353343</v>
       </c>
       <c r="I15">
-        <v>0.2731693110059291</v>
+        <v>0.4761874599912402</v>
       </c>
       <c r="J15">
-        <v>0.2731693110059291</v>
+        <v>0.4761874599912402</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>11.980769</v>
       </c>
       <c r="O15">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P15">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q15">
-        <v>0.3770720739335556</v>
+        <v>0.4703689845296667</v>
       </c>
       <c r="R15">
-        <v>3.393648665402</v>
+        <v>4.233320860767001</v>
       </c>
       <c r="S15">
-        <v>0.04745776513882232</v>
+        <v>0.08456946112795566</v>
       </c>
       <c r="T15">
-        <v>0.04745776513882233</v>
+        <v>0.08456946112795566</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.09441933333333334</v>
+        <v>0.117781</v>
       </c>
       <c r="H16">
-        <v>0.283258</v>
+        <v>0.353343</v>
       </c>
       <c r="I16">
-        <v>0.2731693110059291</v>
+        <v>0.4761874599912402</v>
       </c>
       <c r="J16">
-        <v>0.2731693110059291</v>
+        <v>0.4761874599912402</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N16">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O16">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P16">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q16">
-        <v>0.4910112825628888</v>
+        <v>0.3776314837373334</v>
       </c>
       <c r="R16">
-        <v>4.419101543066</v>
+        <v>3.398683353636</v>
       </c>
       <c r="S16">
-        <v>0.06179799497028685</v>
+        <v>0.06789582675513842</v>
       </c>
       <c r="T16">
-        <v>0.06179799497028686</v>
+        <v>0.06789582675513842</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.09441933333333334</v>
+        <v>0.117781</v>
       </c>
       <c r="H17">
-        <v>0.283258</v>
+        <v>0.353343</v>
       </c>
       <c r="I17">
-        <v>0.2731693110059291</v>
+        <v>0.4761874599912402</v>
       </c>
       <c r="J17">
-        <v>0.2731693110059291</v>
+        <v>0.4761874599912402</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N17">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O17">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P17">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q17">
-        <v>0.3813257593195556</v>
+        <v>0.3256767142240001</v>
       </c>
       <c r="R17">
-        <v>3.431931833876</v>
+        <v>2.931090428016001</v>
       </c>
       <c r="S17">
-        <v>0.04799312804681322</v>
+        <v>0.05855467756103671</v>
       </c>
       <c r="T17">
-        <v>0.04799312804681323</v>
+        <v>0.0585546775610367</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.09441933333333334</v>
+        <v>0.117781</v>
       </c>
       <c r="H18">
-        <v>0.283258</v>
+        <v>0.353343</v>
       </c>
       <c r="I18">
-        <v>0.2731693110059291</v>
+        <v>0.4761874599912402</v>
       </c>
       <c r="J18">
-        <v>0.2731693110059291</v>
+        <v>0.4761874599912402</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N18">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O18">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P18">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q18">
-        <v>0.3754979777544445</v>
+        <v>0.5769581590873334</v>
       </c>
       <c r="R18">
-        <v>3.379481799790001</v>
+        <v>5.192623431786001</v>
       </c>
       <c r="S18">
-        <v>0.0472596515898796</v>
+        <v>0.1037335415645707</v>
       </c>
       <c r="T18">
-        <v>0.0472596515898796</v>
+        <v>0.1037335415645707</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.09441933333333334</v>
+        <v>0.117781</v>
       </c>
       <c r="H19">
-        <v>0.283258</v>
+        <v>0.353343</v>
       </c>
       <c r="I19">
-        <v>0.2731693110059291</v>
+        <v>0.4761874599912402</v>
       </c>
       <c r="J19">
-        <v>0.2731693110059291</v>
+        <v>0.4761874599912402</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N19">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O19">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P19">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q19">
-        <v>0.5046527360580002</v>
+        <v>0.7373346969976667</v>
       </c>
       <c r="R19">
-        <v>4.541874624522001</v>
+        <v>6.636012272979</v>
       </c>
       <c r="S19">
-        <v>0.06351488927478854</v>
+        <v>0.1325682603379736</v>
       </c>
       <c r="T19">
-        <v>0.06351488927478854</v>
+        <v>0.1325682603379736</v>
       </c>
     </row>
   </sheetData>
